--- a/data/questionnaires/version1/question_group.xlsx
+++ b/data/questionnaires/version1/question_group.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -27,15 +27,6 @@
     <t>CONSENT_FORM_QUESTIONS</t>
   </si>
   <si>
-    <t>FAMILY_BREAST_HOW_MANY_QUESTIONS</t>
-  </si>
-  <si>
-    <t>FAMILY_BREAST_AGE_QUESTIONS</t>
-  </si>
-  <si>
-    <t>FAMILY_OVARIAN_HOW_MANY_QUESTIONS</t>
-  </si>
-  <si>
     <t>FAMILY_AFFECTED_GRANDMOTHER_QUESTIONS</t>
   </si>
   <si>
@@ -51,16 +42,13 @@
     <t>PERSONAL_HISTORY_QUESTIONS</t>
   </si>
   <si>
-    <t>MALE_BREAST_CANCER_QUESTIONS</t>
-  </si>
-  <si>
-    <t>FAMILY_OVARIAN_AGE_QUESTIONS</t>
-  </si>
-  <si>
-    <t>FAMILY_BREAST_AFFECTED_QUESTIONS</t>
-  </si>
-  <si>
-    <t>FAMILY_OVARIAN_AFFECTED_QUESTIONS</t>
+    <t>FAMILY_AFFECTED_QUESTIONS</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST_QUESTIONS</t>
+  </si>
+  <si>
+    <t>FAMILY_OVARIAN_QUESTIONS</t>
   </si>
 </sst>
 </file>
@@ -399,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,38 +480,6 @@
       </c>
       <c r="B10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
